--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/CapSalud.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/CapSalud.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{6F3C74D6-14CC-4B34-B0F7-6AEDAB054D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA55D8D1-B7E9-47B7-8CBC-CCDF39161B02}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="8_{6F3C74D6-14CC-4B34-B0F7-6AEDAB054D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88CDF43B-5C9A-468E-AC94-CD270E820FF0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{1C4ABF53-B65D-46A0-989E-B255C277597D}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{1C4ABF53-B65D-46A0-989E-B255C277597D}"/>
   </bookViews>
   <sheets>
     <sheet name="2_4" sheetId="1" r:id="rId1"/>
     <sheet name="2_5" sheetId="2" r:id="rId2"/>
-    <sheet name="2_10" sheetId="3" r:id="rId3"/>
-    <sheet name="2_12" sheetId="4" r:id="rId4"/>
+    <sheet name="2_8" sheetId="5" r:id="rId3"/>
+    <sheet name="2_10" sheetId="3" r:id="rId4"/>
+    <sheet name="2_12" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Grupos de edad</t>
   </si>
@@ -150,6 +151,9 @@
   </si>
   <si>
     <t>Accidente vascular encefálico agudo</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -296,7 +300,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -358,6 +362,9 @@
     </xf>
     <xf numFmtId="167" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -377,10 +384,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1019,6 +1022,87 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C71BA70-4866-48E7-8CFB-281A45B3CC58}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="22">
+        <v>527</v>
+      </c>
+      <c r="C2" s="22">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="9">
+        <v>492</v>
+      </c>
+      <c r="C3" s="9">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="9">
+        <v>382</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="9">
+        <v>469</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="9">
+        <v>545</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF65A37A-CFC5-4915-9E3D-092AB905FE62}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1073,12 +1157,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E410B991-BA86-49B0-9E20-ABB986677C7D}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/CapSalud.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/CapSalud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="622" documentId="8_{6F3C74D6-14CC-4B34-B0F7-6AEDAB054D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAEF5C04-74C2-47D3-A482-08364305E6EF}"/>
+  <xr:revisionPtr revIDLastSave="696" documentId="8_{6F3C74D6-14CC-4B34-B0F7-6AEDAB054D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF7082E5-95DB-4A0E-B6C0-E1C19931A5A5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{1C4ABF53-B65D-46A0-989E-B255C277597D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{1C4ABF53-B65D-46A0-989E-B255C277597D}"/>
   </bookViews>
   <sheets>
     <sheet name="2_001" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>Grupos de edad</t>
   </si>
@@ -242,28 +242,25 @@
     <t>50-54</t>
   </si>
   <si>
+    <t>Otros trastornos maternos</t>
+  </si>
+  <si>
+    <t>Complicaciones con el puerperio</t>
+  </si>
+  <si>
+    <t>Complicaciones del trabajo de parto</t>
+  </si>
+  <si>
+    <t>Atención materna relacionada con el feto</t>
+  </si>
+  <si>
     <t>Embarazo terminado en aborto</t>
   </si>
   <si>
-    <t>Edema, proteinuria y trastornos hipertensivos en el embarazo, el parto y el puerperio</t>
+    <t>Hipertensión en el embarazo, el parto y el puerperio</t>
   </si>
   <si>
-    <t>Otros trastornos maternos relacionados principalmente con el embarazo</t>
-  </si>
-  <si>
-    <t>Atención materna relacionada con el feto y la cavidad amniótica y con posibles problemas del parto</t>
-  </si>
-  <si>
-    <t>Complicaciones del trabajo de parto y del parto</t>
-  </si>
-  <si>
-    <t>Complicaciones principalmente relacionadas con el puerperio</t>
-  </si>
-  <si>
-    <t>Otras afecciones obstétricas no clasificadas en otra parte</t>
-  </si>
-  <si>
-    <t>Causas de Muerte</t>
+    <t>Otras afecciones obstétricas</t>
   </si>
 </sst>
 </file>
@@ -497,7 +494,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -599,9 +596,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -82754,7 +82748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E410B991-BA86-49B0-9E20-ABB986677C7D}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -98976,18 +98970,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043FFE9B-02B7-4DE4-BC57-7853D7AC7302}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="B1" s="33">
         <v>2018</v>
@@ -98998,13 +98992,13 @@
       <c r="D1">
         <v>2020</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B2" s="35">
         <v>19</v>
@@ -99021,7 +99015,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B3" s="35">
         <v>72</v>
@@ -99038,7 +99032,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="35">
         <v>8</v>
@@ -99072,7 +99066,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="35">
         <v>117</v>
@@ -99089,7 +99083,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B7" s="35">
         <v>17</v>

--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/CapSalud.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/CapSalud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="903" documentId="8_{6F3C74D6-14CC-4B34-B0F7-6AEDAB054D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7AA004B-4C69-434F-8F43-9277B0F87B10}"/>
+  <xr:revisionPtr revIDLastSave="1071" documentId="8_{6F3C74D6-14CC-4B34-B0F7-6AEDAB054D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DED2D5D3-C03E-4CB6-BDA1-D0F378635EC0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C4ABF53-B65D-46A0-989E-B255C277597D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1C4ABF53-B65D-46A0-989E-B255C277597D}"/>
   </bookViews>
   <sheets>
     <sheet name="2_1" sheetId="9" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Grupos de edad</t>
   </si>
@@ -236,28 +236,31 @@
     <t>Otras afecciones obstétricas</t>
   </si>
   <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Método inyectable</t>
-  </si>
-  <si>
-    <t>Método DIU</t>
-  </si>
-  <si>
-    <t>Método píldora</t>
+    <t>Inyectable</t>
+  </si>
+  <si>
+    <t>DIU</t>
+  </si>
+  <si>
+    <t>Píldora</t>
+  </si>
+  <si>
+    <t>Barrera</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>Quirúrgico</t>
   </si>
   <si>
     <t>Implante subdérmico</t>
   </si>
   <si>
-    <t>Método natural</t>
-  </si>
-  <si>
-    <t>Método quirúrgico</t>
-  </si>
-  <si>
-    <t>Metodo de barrera</t>
+    <t>Tipo de Método</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85384F0F-09D6-453C-B750-4CFF0D287332}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1483,1191 +1486,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F2889D-6299-4ECD-BF91-ACE344428AB6}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>48262</v>
+      </c>
+      <c r="C2">
+        <v>25811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3">
+        <v>938482</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4">
+        <v>5100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B5">
+        <v>58250</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>32172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
-        <v>40445</v>
-      </c>
-      <c r="C2">
-        <v>559</v>
-      </c>
-      <c r="D2">
-        <v>2541</v>
-      </c>
-      <c r="E2">
-        <v>3635</v>
-      </c>
-      <c r="F2">
-        <v>5177</v>
-      </c>
-      <c r="G2">
-        <v>76</v>
-      </c>
-      <c r="H2">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>9005</v>
-      </c>
-      <c r="C4">
-        <v>65</v>
-      </c>
-      <c r="D4">
-        <v>662</v>
-      </c>
-      <c r="E4">
-        <v>594</v>
-      </c>
-      <c r="F4">
-        <v>172</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>14313</v>
-      </c>
-      <c r="C6">
-        <v>180</v>
-      </c>
-      <c r="D6">
-        <v>2450</v>
-      </c>
-      <c r="E6">
-        <v>875</v>
-      </c>
-      <c r="F6">
-        <v>4802</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
       <c r="B7">
-        <v>0</v>
+        <v>48796</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B8">
-        <v>15520</v>
+        <v>4527</v>
       </c>
       <c r="C8">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <v>986</v>
-      </c>
-      <c r="E8">
-        <v>756</v>
-      </c>
-      <c r="F8">
-        <v>3585</v>
-      </c>
-      <c r="G8">
-        <v>777</v>
-      </c>
-      <c r="H8">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>30552</v>
-      </c>
-      <c r="C10">
-        <v>101</v>
-      </c>
-      <c r="D10">
-        <v>1951</v>
-      </c>
-      <c r="E10">
-        <v>1289</v>
-      </c>
-      <c r="F10">
-        <v>2614</v>
-      </c>
-      <c r="G10">
-        <v>316</v>
-      </c>
-      <c r="H10">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12">
-        <v>6512</v>
-      </c>
-      <c r="C12">
-        <v>92</v>
-      </c>
-      <c r="D12">
-        <v>153</v>
-      </c>
-      <c r="E12">
-        <v>602</v>
-      </c>
-      <c r="F12">
-        <v>78</v>
-      </c>
-      <c r="G12">
-        <v>369</v>
-      </c>
-      <c r="H12">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
-        <v>31579</v>
-      </c>
-      <c r="C14">
-        <v>178</v>
-      </c>
-      <c r="D14">
-        <v>1582</v>
-      </c>
-      <c r="E14">
-        <v>1692</v>
-      </c>
-      <c r="F14">
-        <v>622</v>
-      </c>
-      <c r="G14">
-        <v>226</v>
-      </c>
-      <c r="H14">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>24</v>
-      </c>
-      <c r="H15">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
-        <v>19337</v>
-      </c>
-      <c r="C16">
-        <v>907</v>
-      </c>
-      <c r="D16">
-        <v>1766</v>
-      </c>
-      <c r="E16">
-        <v>6047</v>
-      </c>
-      <c r="F16">
-        <v>3077</v>
-      </c>
-      <c r="G16">
-        <v>139</v>
-      </c>
-      <c r="H16">
-        <v>5320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>79</v>
-      </c>
-      <c r="H17">
-        <v>2810</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18">
-        <v>44512</v>
-      </c>
-      <c r="C18">
-        <v>412</v>
-      </c>
-      <c r="D18">
-        <v>3095</v>
-      </c>
-      <c r="E18">
-        <v>2801</v>
-      </c>
-      <c r="F18">
-        <v>5529</v>
-      </c>
-      <c r="G18">
-        <v>1177</v>
-      </c>
-      <c r="H18">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20">
-        <v>6579</v>
-      </c>
-      <c r="C20">
-        <v>55</v>
-      </c>
-      <c r="D20">
-        <v>768</v>
-      </c>
-      <c r="E20">
-        <v>792</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22">
-        <v>7034</v>
-      </c>
-      <c r="C22">
-        <v>42</v>
-      </c>
-      <c r="D22">
-        <v>1215</v>
-      </c>
-      <c r="E22">
-        <v>548</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>17</v>
-      </c>
-      <c r="H22">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24">
-        <v>9822</v>
-      </c>
-      <c r="C24">
-        <v>74</v>
-      </c>
-      <c r="D24">
-        <v>359</v>
-      </c>
-      <c r="E24">
-        <v>816</v>
-      </c>
-      <c r="F24">
-        <v>106</v>
-      </c>
-      <c r="G24">
-        <v>204</v>
-      </c>
-      <c r="H24">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>9</v>
-      </c>
-      <c r="H25">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26">
-        <v>22898</v>
-      </c>
-      <c r="C26">
-        <v>448</v>
-      </c>
-      <c r="D26">
-        <v>1743</v>
-      </c>
-      <c r="E26">
-        <v>1289</v>
-      </c>
-      <c r="F26">
-        <v>1802</v>
-      </c>
-      <c r="G26">
-        <v>259</v>
-      </c>
-      <c r="H26">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>25</v>
-      </c>
-      <c r="H27">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28">
-        <v>31468</v>
-      </c>
-      <c r="C28">
-        <v>473</v>
-      </c>
-      <c r="D28">
-        <v>2846</v>
-      </c>
-      <c r="E28">
-        <v>1976</v>
-      </c>
-      <c r="F28">
-        <v>4576</v>
-      </c>
-      <c r="G28">
-        <v>271</v>
-      </c>
-      <c r="H28">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30">
-        <v>10748</v>
-      </c>
-      <c r="C30">
-        <v>114</v>
-      </c>
-      <c r="D30">
-        <v>865</v>
-      </c>
-      <c r="E30">
-        <v>587</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="H30">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>6189</v>
-      </c>
-      <c r="C32">
-        <v>160</v>
-      </c>
-      <c r="D32">
-        <v>859</v>
-      </c>
-      <c r="E32">
-        <v>423</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>32030</v>
-      </c>
-      <c r="C34">
-        <v>201</v>
-      </c>
-      <c r="D34">
-        <v>2816</v>
-      </c>
-      <c r="E34">
-        <v>846</v>
-      </c>
-      <c r="F34">
-        <v>215</v>
-      </c>
-      <c r="G34">
-        <v>65</v>
-      </c>
-      <c r="H34">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>12812</v>
-      </c>
-      <c r="C36">
-        <v>130</v>
-      </c>
-      <c r="D36">
-        <v>1407</v>
-      </c>
-      <c r="E36">
-        <v>1551</v>
-      </c>
-      <c r="F36">
-        <v>381</v>
-      </c>
-      <c r="G36">
-        <v>247</v>
-      </c>
-      <c r="H36">
-        <v>2315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>5969</v>
-      </c>
-      <c r="C38">
-        <v>42</v>
-      </c>
-      <c r="D38">
-        <v>604</v>
-      </c>
-      <c r="E38">
-        <v>269</v>
-      </c>
-      <c r="F38">
-        <v>4365</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40">
-        <v>13868</v>
-      </c>
-      <c r="C40">
-        <v>149</v>
-      </c>
-      <c r="D40">
-        <v>722</v>
-      </c>
-      <c r="E40">
-        <v>915</v>
-      </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42">
-        <v>11529</v>
-      </c>
-      <c r="C42">
-        <v>167</v>
-      </c>
-      <c r="D42">
-        <v>1000</v>
-      </c>
-      <c r="E42">
-        <v>691</v>
-      </c>
-      <c r="F42">
-        <v>4353</v>
-      </c>
-      <c r="G42">
-        <v>63</v>
-      </c>
-      <c r="H42">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>11</v>
-      </c>
-      <c r="H43">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44">
-        <v>10770</v>
-      </c>
-      <c r="C44">
-        <v>39</v>
-      </c>
-      <c r="D44">
-        <v>473</v>
-      </c>
-      <c r="E44">
-        <v>283</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>313</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/CapSalud.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/CapSalud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1071" documentId="8_{6F3C74D6-14CC-4B34-B0F7-6AEDAB054D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DED2D5D3-C03E-4CB6-BDA1-D0F378635EC0}"/>
+  <xr:revisionPtr revIDLastSave="1072" documentId="8_{6F3C74D6-14CC-4B34-B0F7-6AEDAB054D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E5A023F-A335-4218-939A-B67EB4826A88}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1C4ABF53-B65D-46A0-989E-B255C277597D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{1C4ABF53-B65D-46A0-989E-B255C277597D}"/>
   </bookViews>
   <sheets>
     <sheet name="2_1" sheetId="9" r:id="rId1"/>
@@ -561,10 +561,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1488,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F2889D-6299-4ECD-BF91-ACE344428AB6}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2207,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF65A37A-CFC5-4915-9E3D-092AB905FE62}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,7 +2222,7 @@
         <v>2018</v>
       </c>
       <c r="B2" s="15">
-        <v>0.76187891900000004</v>
+        <v>6.2111987485077051</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -2234,7 +2230,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="13">
-        <v>0.670564665</v>
+        <v>5.6413729141350366</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -2242,7 +2238,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="13">
-        <v>0.75905888399999999</v>
+        <v>5.4534849875090812</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -2250,7 +2246,7 @@
         <v>2021</v>
       </c>
       <c r="B5" s="13">
-        <v>0.84021683400000002</v>
+        <v>6.5936845147770793</v>
       </c>
     </row>
   </sheetData>
